--- a/src/test/resources/testdata/ADdata.xlsx
+++ b/src/test/resources/testdata/ADdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024"/>
+    <workbookView windowHeight="12264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,38 +16,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t>Arrivals</t>
   </si>
   <si>
+    <t>Departures</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>Houskeeping</t>
+  </si>
+  <si>
+    <t>ArrivalData</t>
+  </si>
+  <si>
+    <t>Departure =&gt; Housekeeping</t>
+  </si>
+  <si>
+    <t>Arrival  =&gt; Inspection</t>
+  </si>
+  <si>
+    <t>FORMULA A =&gt; AD</t>
+  </si>
+  <si>
+    <t>Arrival=&gt;Inspection=&gt;Arrival&amp;Depature</t>
+  </si>
+  <si>
     <t>AM118B</t>
   </si>
   <si>
+    <t>AQ111</t>
+  </si>
+  <si>
+    <t>WSC-A316</t>
+  </si>
+  <si>
+    <t>MB2-806</t>
+  </si>
+  <si>
+    <t>Value Match</t>
+  </si>
+  <si>
     <t>COBIA</t>
   </si>
   <si>
+    <t>LB2-103</t>
+  </si>
+  <si>
+    <t>ESBH22RU</t>
+  </si>
+  <si>
+    <t>Value Does not Match</t>
+  </si>
+  <si>
     <t>ROSSANA</t>
   </si>
   <si>
     <t>SRB1908</t>
   </si>
   <si>
-    <t>WSC-A316</t>
-  </si>
-  <si>
-    <t>Departures</t>
-  </si>
-  <si>
-    <t>AQ111</t>
-  </si>
-  <si>
-    <t>LB2-103</t>
-  </si>
-  <si>
-    <t>MB2-806</t>
-  </si>
-  <si>
     <t>SBRE205</t>
   </si>
   <si>
@@ -58,36 +88,6 @@
   </si>
   <si>
     <t>WATCH</t>
-  </si>
-  <si>
-    <t>Inspection</t>
-  </si>
-  <si>
-    <t>Houskeeping</t>
-  </si>
-  <si>
-    <t>ESBH22RU</t>
-  </si>
-  <si>
-    <t>Departure =&gt; Housekeeping</t>
-  </si>
-  <si>
-    <t>Value Match</t>
-  </si>
-  <si>
-    <t>Arrival  =&gt; Inspection</t>
-  </si>
-  <si>
-    <t>Value Does not Match</t>
-  </si>
-  <si>
-    <t>ArrivalData</t>
-  </si>
-  <si>
-    <t>FORMULA A =&gt; AD</t>
-  </si>
-  <si>
-    <t>Arrival=&gt;Inspection=&gt;Arrival&amp;Depature</t>
   </si>
 </sst>
 </file>
@@ -1049,231 +1049,240 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:F6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="10.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="25.8888888888889" customWidth="1"/>
+    <col min="7" max="8" width="20.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="36.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
